--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>title.de</t>
   </si>
@@ -165,6 +165,9 @@
   <si>
     <t xml:space="preserve">The DZHW Graduate Panel 2009 is part of the DZHW Graduate Survey Series, which compiles information on study, career entry, career development and further qualifications of higher education graduates using standardised surveys. The first Graduate Panel was created in 1989. Since then, every fourth graduate year (cohort) has been surveyed. For each graduate cohort, a series of survey waves are carried out, with each wave occurring at differing time intervals following the completion of degree. The DZHW Graduate Panel 2009 comprises the sixth graduate cohort of the survey series. Similar to the 2005 cohort, the study phase of the 2009 cohort is defined by the transformation of higher education through the Bologna Process as well as the changed labour market conditions due to the economic and financial crisis in 2008. In contrast to preceding graduate cohorts, a large number of Bachelor graduates were surveyed in addition to graduates of traditional courses of study. As a methodical innovation, the second survey wave for the 2009 cohort was conducted online for the first time. In addition to the main survey, the second survey wave includes two in-depth surveys on the topics „doctorate“ and „regional mobility“.
 </t>
+  </si>
+  <si>
+    <t>DZHW Graduate Survey Series</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,9 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
     <sheet name="authors" sheetId="2" r:id="rId2"/>
     <sheet name="attachments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>title.de</t>
   </si>
@@ -168,13 +168,31 @@
   </si>
   <si>
     <t>DZHW Graduate Survey Series</t>
+  </si>
+  <si>
+    <t>gra2009_MethodReport_de.pdf</t>
+  </si>
+  <si>
+    <t>Daten- und Methodenbericht</t>
+  </si>
+  <si>
+    <t>Method Report</t>
+  </si>
+  <si>
+    <t>Daten- und Methodenbericht zu den Erhebungen der Absolvent(inn)enkohorte 2009 (1. und 2. Befragungswelle). Version 1.0.0</t>
+  </si>
+  <si>
+    <t>Data and Methods Report on the Graduate Panel 2009 (1st and 2nd Survey Waves). Version 1.0.0</t>
+  </si>
+  <si>
+    <t>de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,6 +216,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -226,11 +251,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,10 +272,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -834,16 +868,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="1025" width="9.140625" customWidth="1"/>
@@ -872,6 +909,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>title.de</t>
   </si>
@@ -186,6 +186,27 @@
   </si>
   <si>
     <t>de</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Eckdaten der Studie</t>
+  </si>
+  <si>
+    <t>Basic Data of Study</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>gra2009_Overview_en.pdf</t>
+  </si>
+  <si>
+    <t>Overview of the DZHW Graduate Panel 2009</t>
   </si>
 </sst>
 </file>
@@ -868,10 +889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +953,29 @@
         <v>55</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>title.de</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Overview of the DZHW Graduate Panel 2009</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
   </si>
 </sst>
 </file>
@@ -671,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,8 +697,8 @@
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
     <col min="19" max="19" width="9.42578125" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" customWidth="1"/>
@@ -700,7 +706,7 @@
     <col min="23" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +755,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -891,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -194,12 +194,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Eckdaten der Studie</t>
-  </si>
-  <si>
-    <t>Basic Data of Study</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>annotations.en</t>
+  </si>
+  <si>
+    <t>Studienübersicht</t>
+  </si>
+  <si>
+    <t>Study Overview</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
@@ -756,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -976,16 +976,16 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>title.de</t>
   </si>
@@ -48,12 +48,6 @@
     <t>sponsor.en</t>
   </si>
   <si>
-    <t>citationHint.de</t>
-  </si>
-  <si>
-    <t>citationHint.en</t>
-  </si>
-  <si>
     <t>dataAvailability.de</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
   </si>
   <si>
     <t>Available</t>
-  </si>
-  <si>
-    <t>Brandt, G., Briedis, K., Fabian, G., Klüver, S., Rehn, T. &amp; Trommer, M. (2016). DZHW-Absolventenpanel 2009. Aufbereitet durch Baillet, F., Franken, A. &amp; Weber, A., doi: 10.21249/DZHW:gra2009:1.0.0, DATENSATZNAME , released 2017. Hannover: FDZ-DZHW.</t>
   </si>
   <si>
     <t xml:space="preserve">Das DZHW-Absolventenpanel 2009 ist Teil der DZHW-Absolventenstudienreihe, in der anhand von standardisierten Befragungen Informationen zu Studium, Berufseintritt, Berufsverlauf und Weiterqualifizierung von Hochschulabsolvent(inn)en erfasst werden. Das erste Absolventenpanel wurde 1989 durchgeführt, seitdem wird jeder vierte Absolvent(inn)enjahrgang (Kohorte) untersucht. Für jede Absolvent(inn)enkohorte werden mehrere Befragungswellen durchgeführt, wobei jede Welle in unterschiedlichem zeitlichen Abstand zum Studienabschluss stattfindet. Beim Absolventenpanel 2009 handelt es sich um die sechste Absolvent(inn)enkohorte der Studienreihe. Wie bei der Absolvent(inn)enkohorte 2005 ist die Studienphase der Kohorte 2009 durch den Hochschulwandel im Rahmen des Bologna-Prozesses geprägt und die berufliche Einstiegsphase durch die Wirtschafts- und Finanzkrise im Jahr 2008 gekennzeichnet. Im Unterschied zu vorangegangenen Absolvent(inn)enkohorten weist die Absolvent(inn)enkohorte 2009 jedoch neben Absolvent(inn)en mit traditionellen Abschlüssen auch eine große Anzahl an Bachelorabsolvent(inn)en auf. Eine methodische Neuerung der Absolventenkohorte 2009 ist im Vergleich zu den vorangegangen Kohorten außerdem, dass die zweite Befragungswelle erstmals online durchgeführt wurde. Zudem umfasst die zweite Befragungswelle neben einer Hauptbefragung auch zwei Vertiefungsbefragungen zu den Themen „Promotion“ und „regionale Mobilität“.
@@ -677,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,21 +683,21 @@
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.28515625" customWidth="1"/>
-    <col min="23" max="1024" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" customWidth="1"/>
+    <col min="21" max="1022" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,63 +741,54 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -835,62 +817,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -921,16 +903,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -939,53 +921,53 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -147,10 +147,6 @@
     <t>Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Das DZHW-Absolventenpanel 2009 ist Teil der DZHW-Absolventenstudienreihe, in der anhand von standardisierten Befragungen Informationen zu Studium, Berufseintritt, Berufsverlauf und Weiterqualifizierung von Hochschulabsolvent(inn)en erfasst werden. Das erste Absolventenpanel wurde 1989 durchgeführt, seitdem wird jeder vierte Absolvent(inn)enjahrgang (Kohorte) untersucht. Für jede Absolvent(inn)enkohorte werden mehrere Befragungswellen durchgeführt, wobei jede Welle in unterschiedlichem zeitlichen Abstand zum Studienabschluss stattfindet. Beim Absolventenpanel 2009 handelt es sich um die sechste Absolvent(inn)enkohorte der Studienreihe. Wie bei der Absolvent(inn)enkohorte 2005 ist die Studienphase der Kohorte 2009 durch den Hochschulwandel im Rahmen des Bologna-Prozesses geprägt und die berufliche Einstiegsphase durch die Wirtschafts- und Finanzkrise im Jahr 2008 gekennzeichnet. Im Unterschied zu vorangegangenen Absolvent(inn)enkohorten weist die Absolvent(inn)enkohorte 2009 jedoch neben Absolvent(inn)en mit traditionellen Abschlüssen auch eine große Anzahl an Bachelorabsolvent(inn)en auf. Eine methodische Neuerung der Absolventenkohorte 2009 ist im Vergleich zu den vorangegangen Kohorten außerdem, dass die zweite Befragungswelle erstmals online durchgeführt wurde. Zudem umfasst die zweite Befragungswelle neben einer Hauptbefragung auch zwei Vertiefungsbefragungen zu den Themen „Promotion“ und „regionale Mobilität“.
-</t>
-  </si>
-  <si>
     <t>Federal Ministry of Education and Research (BMBF)</t>
   </si>
   <si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>Study Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das DZHW-Absolventenpanel 2009 ist Teil der DZHW-Absolventenstudienreihe, in der anhand von standardisierten Befragungen Informationen zu Studium, Berufseintritt, Berufsverlauf und Weiterqualifizierung von Hochschulabsolvent(inn)en erfasst werden. Das erste Absolventenpanel wurde 1989 durchgeführt, seitdem wird jeder vierte Absolvent(inn)enjahrgang (Kohorte) untersucht. Für jede Absolvent(inn)enkohorte werden mehrere Befragungswellen durchgeführt, wobei jede Welle in unterschiedlichem zeitlichen Abstand zum Studienabschluss stattfindet. Beim Absolventenpanel 2009 handelt es sich um die sechste Absolvent(inn)enkohorte der Studienreihe. Wie bei der Absolvent(inn)enkohorte 2005 ist die Studienphase der Kohorte 2009 durch den Hochschulwandel im Rahmen des Bologna-Prozesses geprägt und die berufliche Einstiegsphase durch die Wirtschafts- und Finanzkrise im Jahr 2008 gekennzeichnet. Im Unterschied zu vorangegangenen Absolvent(inn)enkohorten weist die Absolvent(inn)enkohorte 2009 jedoch neben Absolvent(inn)en mit traditionellen Abschlüssen auch eine große Anzahl an Bachelorabsolvent(inn)en auf. Eine methodische Neuerung der Absolvent(inn)enkohorte 2009 ist im Vergleich zu den vorangegangen Kohorten außerdem, dass die zweite Befragungswelle erstmals online durchgeführt wurde. Zudem umfasst die zweite Befragungswelle neben einer Hauptbefragung auch zwei Vertiefungsbefragungen zu den Themen „Promotion“ und „regionale Mobilität“.
+</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,10 +755,10 @@
         <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -770,13 +770,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>41</v>
@@ -926,48 +926,48 @@
     </row>
     <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -36,12 +36,6 @@
     <t>institution.en</t>
   </si>
   <si>
-    <t>surveySeries.de</t>
-  </si>
-  <si>
-    <t>surveySeries.en</t>
-  </si>
-  <si>
     <t>sponsor.de</t>
   </si>
   <si>
@@ -204,6 +198,12 @@
   <si>
     <t xml:space="preserve">Das DZHW-Absolventenpanel 2009 ist Teil der DZHW-Absolventenstudienreihe, in der anhand von standardisierten Befragungen Informationen zu Studium, Berufseintritt, Berufsverlauf und Weiterqualifizierung von Hochschulabsolvent(inn)en erfasst werden. Das erste Absolventenpanel wurde 1989 durchgeführt, seitdem wird jeder vierte Absolvent(inn)enjahrgang (Kohorte) untersucht. Für jede Absolvent(inn)enkohorte werden mehrere Befragungswellen durchgeführt, wobei jede Welle in unterschiedlichem zeitlichen Abstand zum Studienabschluss stattfindet. Beim Absolventenpanel 2009 handelt es sich um die sechste Absolvent(inn)enkohorte der Studienreihe. Wie bei der Absolvent(inn)enkohorte 2005 ist die Studienphase der Kohorte 2009 durch den Hochschulwandel im Rahmen des Bologna-Prozesses geprägt und die berufliche Einstiegsphase durch die Wirtschafts- und Finanzkrise im Jahr 2008 gekennzeichnet. Im Unterschied zu vorangegangenen Absolvent(inn)enkohorten weist die Absolvent(inn)enkohorte 2009 jedoch neben Absolvent(inn)en mit traditionellen Abschlüssen auch eine große Anzahl an Bachelorabsolvent(inn)en auf. Eine methodische Neuerung der Absolvent(inn)enkohorte 2009 ist im Vergleich zu den vorangegangen Kohorten außerdem, dass die zweite Befragungswelle erstmals online durchgeführt wurde. Zudem umfasst die zweite Befragungswelle neben einer Hauptbefragung auch zwei Vertiefungsbefragungen zu den Themen „Promotion“ und „regionale Mobilität“.
 </t>
+  </si>
+  <si>
+    <t>studySeries.en</t>
+  </si>
+  <si>
+    <t>studySeries.de</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,78 +717,78 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -817,62 +817,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -903,16 +903,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -921,53 +921,53 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
     <sheet name="authors" sheetId="2" r:id="rId2"/>
     <sheet name="attachments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>title.de</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>studySeries.de</t>
+  </si>
+  <si>
+    <t>gra2009_MethodReport_en.pdf</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -670,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -883,10 +887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,26 +951,49 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>52</v>
       </c>
     </row>
